--- a/biology/Histoire de la zoologie et de la botanique/Josif_Pančić/Josif_Pančić.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Josif_Pančić/Josif_Pančić.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Josif_Pan%C4%8Di%C4%87</t>
+          <t>Josif_Pančić</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josip puis Josif Pančić (en serbe cyrillique : Јосиф Панчић) est un botaniste et un agronome serbe, né le 17 avril 1814 à Bribir en Provinces illyriennes, Empire français et mort le 18 mars 1888 à Belgrade. Il a été membre et président de l'Académie serbe des sciences et des arts[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josip puis Josif Pančić (en serbe cyrillique : Јосиф Панчић) est un botaniste et un agronome serbe, né le 17 avril 1814 à Bribir en Provinces illyriennes, Empire français et mort le 18 mars 1888 à Belgrade. Il a été membre et président de l'Académie serbe des sciences et des arts.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Josif_Pan%C4%8Di%C4%87</t>
+          <t>Josif_Pančić</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josif Pančić est né près de la frontière de l’Autriche-Hongrie (aujourd’hui la Croatie) dans une famille serbe catholique. Il fait ses études élémentaires à Gospić puis au lycée de Fiume (Rijeka) et à Zagreb, avant d’être diplômé en 1842 à Budapest en médecine. Mais il est plus intéressé par la biologie en général et la botanique en particulier.
 En 1846, il fait la connaissance du linguiste serbe Vuk Stefanović Karadžić (1787-1864) qui le convainc de s’installer avec lui dans la Principauté de Serbie, alors sous domination ottomane. Il abandonne sa citoyenneté austro-hongroise et change son prénom de Josip en Josif et se convertit à l’orthodoxie[réf. nécessaire]. Pančić exerce la médecine et étudie la flore durant ses nombreux voyages à travers le pays. Il se passionne pour les monts Kopaonik, le plus haut massif montagneux de Serbie, qu’il visite seize fois entre 1851 à 1886.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Josif_Pan%C4%8Di%C4%87</t>
+          <t>Josif_Pančić</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora agri belgradensis, 1865
 Flora principatus Serbiae, 1874
